--- a/data/trans_dic/P15D$consultar-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P15D$consultar-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,27 +725,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,2</t>
+          <t>0,0; 45,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,5; 32,12</t>
+          <t>4,69; 30,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,79; 67,8</t>
+          <t>25,3; 71,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,88</t>
+          <t>0,0; 4,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 78,37</t>
+          <t>0,0; 70,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,39 +755,39 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,93; 25,7</t>
+          <t>3,05; 25,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,86; 18,13</t>
+          <t>1,86; 17,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,73; 50,19</t>
+          <t>5,62; 44,79</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,09; 18,24</t>
+          <t>2,1; 18,59</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13,13; 37,21</t>
+          <t>13,34; 37,89</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,22; 9,91</t>
+          <t>1,18; 9,99</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,12 +865,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,11</t>
+          <t>0,0; 44,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,12</t>
+          <t>0,0; 19,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,7 +880,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,04; 44,75</t>
+          <t>4,04; 43,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,7 +890,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,43</t>
+          <t>0,0; 22,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +900,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,89; 50,47</t>
+          <t>22,02; 51,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,14</t>
+          <t>0,0; 25,99</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,67; 15,31</t>
+          <t>1,69; 15,26</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,14 +920,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,35; 40,77</t>
+          <t>16,99; 41,07</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,22 +1005,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,9</t>
+          <t>0,0; 35,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,77; 15,98</t>
+          <t>1,8; 16,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,63; 40,34</t>
+          <t>7,35; 38,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,35; 26,12</t>
+          <t>2,18; 26,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,37 +1030,37 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,77; 27,96</t>
+          <t>4,83; 25,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,32; 57,57</t>
+          <t>6,94; 55,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,65; 41,79</t>
+          <t>11,84; 41,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,17</t>
+          <t>0,0; 28,45</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,26; 16,51</t>
+          <t>5,18; 17,85</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,21; 36,03</t>
+          <t>10,28; 38,55</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,97; 29,44</t>
+          <t>8,62; 28,44</t>
         </is>
       </c>
     </row>
@@ -1144,27 +1145,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,58</t>
+          <t>0,0; 34,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,31</t>
+          <t>0,0; 20,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,49; 23,01</t>
+          <t>2,65; 24,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,32</t>
+          <t>0,0; 20,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,9</t>
+          <t>0,0; 41,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1174,32 +1175,32 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,26</t>
+          <t>0,0; 19,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,32; 33,61</t>
+          <t>3,25; 33,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,34; 27,85</t>
+          <t>3,26; 27,8</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,59</t>
+          <t>0,0; 15,66</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,58; 15,38</t>
+          <t>3,61; 15,45</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,58; 18,44</t>
+          <t>2,48; 20,32</t>
         </is>
       </c>
     </row>
@@ -1284,17 +1285,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,9; 86,59</t>
+          <t>11,51; 76,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,28</t>
+          <t>0,0; 41,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,45</t>
+          <t>0,0; 45,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,12 +1305,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 68,73</t>
+          <t>0,0; 68,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,38</t>
+          <t>0,0; 40,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1324,17 +1325,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,12; 63,34</t>
+          <t>7,18; 62,5</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,78; 30,25</t>
+          <t>2,8; 28,2</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,48</t>
+          <t>0,0; 40,47</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1346,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1429,17 +1430,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,52</t>
+          <t>0,0; 16,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,16; 28,59</t>
+          <t>3,08; 28,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,6; 25,2</t>
+          <t>4,99; 26,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1449,17 +1450,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,8; 24,51</t>
+          <t>2,77; 25,52</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,38; 27,92</t>
+          <t>2,91; 27,5</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,35; 32,56</t>
+          <t>12,0; 31,81</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1469,24 +1470,24 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,98; 16,83</t>
+          <t>2,92; 15,93</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>5,79; 21,97</t>
+          <t>5,72; 22,47</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>10,45; 25,23</t>
+          <t>10,41; 24,97</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,12 +1565,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,5; 40,28</t>
+          <t>7,33; 42,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,71; 22,29</t>
+          <t>5,89; 21,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1579,47 +1580,47 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,7; 31,15</t>
+          <t>4,58; 31,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,96</t>
+          <t>0,0; 32,41</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,88; 22,38</t>
+          <t>5,43; 23,65</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,32</t>
+          <t>0,0; 22,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,16; 27,63</t>
+          <t>9,42; 28,32</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,86; 30,27</t>
+          <t>7,68; 30,44</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>7,16; 18,91</t>
+          <t>7,32; 19,46</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,45</t>
+          <t>0,0; 15,02</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>9,34; 25,37</t>
+          <t>9,87; 25,62</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1705,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,8</t>
+          <t>0,0; 26,22</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1714,7 +1715,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,63; 21,46</t>
+          <t>2,62; 23,45</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,42 +1725,42 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,91; 40,47</t>
+          <t>7,62; 39,62</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,01</t>
+          <t>0,0; 26,53</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,68; 32,92</t>
+          <t>3,57; 30,37</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,6; 26,32</t>
+          <t>4,95; 26,47</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,93; 25,43</t>
+          <t>6,1; 26,04</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,54</t>
+          <t>0,0; 11,36</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>4,7; 20,26</t>
+          <t>4,65; 21,37</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>2,39; 15,24</t>
+          <t>2,24; 14,23</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,87; 20,82</t>
+          <t>8,3; 20,55</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,12; 11,58</t>
+          <t>5,43; 11,82</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,81; 17,67</t>
+          <t>8,44; 18,12</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,18; 14,05</t>
+          <t>5,08; 14,18</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>6,55; 21,37</t>
+          <t>6,93; 22,56</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,49; 12,51</t>
+          <t>5,48; 12,97</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6,09; 15,42</t>
+          <t>6,21; 15,18</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>14,84; 23,66</t>
+          <t>14,27; 23,35</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>8,81; 17,68</t>
+          <t>9,19; 18,71</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>6,21; 11,2</t>
+          <t>6,28; 11,4</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>8,6; 15,22</t>
+          <t>8,54; 15,16</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>10,87; 17,35</t>
+          <t>10,86; 17,44</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuya consecuencia del último accidente fue, al menos, consultar con un profesional sanitario (fuera de un hospital)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>933</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5042</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8729</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2216</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3013</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1872</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>3149</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>5042</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>11743</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2207</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4230</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1736; 11332</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4859; 13760</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1161</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4982</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2023</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>922; 7616</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>540; 4927</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>921; 7336</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1356; 12022</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6592; 18717</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>673; 5701</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1041</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>4227</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2149</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>11587</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1041</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>4124</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>15813</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3518</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6086</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1939</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>984; 10627</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1680</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6682</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2002</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>7346; 17323</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4369</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1037; 9361</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2040</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>9805; 23698</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3742</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4576</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2068</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4978</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>3884</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>6111</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>8720</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>8461</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>8179</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6528</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>949; 8927</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1708; 8914</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>464; 5572</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1524</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1925; 10259</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>964; 7667</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3174; 11048</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6383</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4803; 16543</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3816; 14305</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4147; 13686</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1922</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>3881</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1903</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2508</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>2875</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>5784</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>3394</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6079</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6397</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1019; 9275</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4855</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4071</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1830</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6948</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>592; 6069</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>899; 7676</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 7348</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2700; 11551</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1039; 8527</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>3114</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1134</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1776</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1658</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2658</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>4772</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>3792</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1776</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>843; 5593</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5521</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4618</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1333</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5375</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7956</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1486</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 417</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1085; 9453</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>922; 9298</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5451</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1307</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1054</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3516</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3173</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3934</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>4493</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>5596</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>4988</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>8009</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>8769</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1845</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4931</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>868; 8117</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1298; 6783</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1811</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>982; 9039</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1060; 10026</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>3240; 8587</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1947</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>1922; 10479</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>3701; 14536</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>5519; 13239</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>5501</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>8268</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>6470</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>6996</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>2317</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>8456</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>7477</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>15264</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>2317</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>14926</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2000; 11648</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3817; 13944</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2013</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1990; 13877</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5969</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>3238; 14112</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0; 6047</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>4722; 14188</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>3508; 13911</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>9110; 24212</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0; 8087</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>9234; 23970</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>1931</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>2996</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>5353</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>1125</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>3865</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>3621</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>7284</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1125</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>6861</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>3621</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0; 6919</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1986</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>908; 8117</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1901</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>2052; 10670</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>0; 6715</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>955; 8119</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1418; 7575</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>3255; 13885</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>0; 5605</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>2850; 13110</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>1222; 7764</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>16370</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>23180</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>25475</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>17157</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>12156</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>21840</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>19475</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>39751</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>28526</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>45020</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>44950</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>56908</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>10210; 25289</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>15411; 33541</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>16848; 36178</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>10158; 28360</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>6496; 21166</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>13931; 32991</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>11817; 28885</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>30477; 49877</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>19934; 40590</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>33805; 61371</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>33298; 59107</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>44914; 72141</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>